--- a/Electrical/Microphones/DigiKey_microphone_order.xlsx
+++ b/Electrical/Microphones/DigiKey_microphone_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satom\Desktop\microphone_designs\microphone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satom\Desktop\Robot\Electrical\Microphones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F0DAB-10FF-4796-865F-AFC0DB4A49CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F971030B-0F3C-4323-BA0F-AC9EA72D9DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="9675" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -583,7 +583,7 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
